--- a/Reports/Final Report Tables.xlsx
+++ b/Reports/Final Report Tables.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="416" documentId="8_{529A81D9-D3FF-4834-85A7-F5290A07351F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A9201C84-592C-491B-BE51-F57FBACD5ECB}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="37695" windowHeight="21840" xr2:uid="{9271DE90-5225-4E0F-95EF-B7F1D61D42E6}"/>
+    <workbookView xWindow="38280" yWindow="1635" windowWidth="38640" windowHeight="15840" xr2:uid="{9271DE90-5225-4E0F-95EF-B7F1D61D42E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature List" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>Robotic Grasping - Feature List</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>Feature No.</t>
@@ -275,14 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,12 +387,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -413,31 +402,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -594,7 +584,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CACE4114-6C44-4F71-B0E2-9889E1826180}" name="Table1" displayName="Table1" ref="A3:G14" totalsRowShown="0" headerRowDxfId="12" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CACE4114-6C44-4F71-B0E2-9889E1826180}" name="Table1" displayName="Table1" ref="A3:G14" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A3:G14" xr:uid="{17F19FCB-6C93-4847-B0AE-0ED9202CC537}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -605,13 +595,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F00FB1CD-463D-4194-B6BF-312CB80AE4E9}" name="Feature No." dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{A54A355A-AA23-4DDC-8871-773F493FE003}" name="Feature Name" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{9256D8FE-C049-4533-9F65-DF7C910707C0}" name="Summary" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{22075168-A916-49DC-884B-FD3EDE3BD5F1}" name="Complexity (1 - 5)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{9A128FAD-94B2-4DF0-95F7-289C8AEBE228}" name="Iteration" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{CF15D37B-99DF-4EDE-BEAA-69E272604B88}" name="Completion" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{B467B4C0-BB3E-4E1C-B42E-873EAC231623}" name="Extra Details" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{F00FB1CD-463D-4194-B6BF-312CB80AE4E9}" name="Feature No." dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{A54A355A-AA23-4DDC-8871-773F493FE003}" name="Feature Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{9256D8FE-C049-4533-9F65-DF7C910707C0}" name="Summary" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{22075168-A916-49DC-884B-FD3EDE3BD5F1}" name="Complexity (1 - 5)" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{9A128FAD-94B2-4DF0-95F7-289C8AEBE228}" name="Iteration" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{CF15D37B-99DF-4EDE-BEAA-69E272604B88}" name="Completion" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{B467B4C0-BB3E-4E1C-B42E-873EAC231623}" name="Extra Details" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -968,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98562E5-D21F-4DC0-9B50-01BAB35E5B7D}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,285 +974,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-    </row>
-    <row r="7" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="E14" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>4</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="F14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>5</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1272,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X53" sqref="X53"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,365 +1285,365 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1.5</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="2">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>58</v>
+      <c r="D6" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="2">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="10"/>
+      <c r="D7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="2">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="9"/>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="10"/>
+      <c r="H15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="H16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="2">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1">
         <v>7</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="2">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1">
         <v>8</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="2">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1">
         <v>9</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>58</v>
+      <c r="L19" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="K20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="2">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1">
         <v>10</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
-      </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="2">
+        <v>70</v>
+      </c>
+      <c r="B23" s="1">
         <v>12</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>58</v>
-      </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="2">
+        <v>71</v>
+      </c>
+      <c r="B24" s="1">
         <v>13</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>58</v>
-      </c>
-      <c r="P24" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="P24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="2">

--- a/Reports/Final Report Tables.xlsx
+++ b/Reports/Final Report Tables.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prifysgolaber-my.sharepoint.com/personal/olt13_aber_ac_uk/Documents/Work/Major Project/mmp_grasp_detect/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="416" documentId="8_{529A81D9-D3FF-4834-85A7-F5290A07351F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A9201C84-592C-491B-BE51-F57FBACD5ECB}"/>
+  <xr:revisionPtr revIDLastSave="550" documentId="8_{529A81D9-D3FF-4834-85A7-F5290A07351F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E5AE32CF-2247-4CBF-BB60-CD3599E589FF}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1635" windowWidth="38640" windowHeight="15840" xr2:uid="{9271DE90-5225-4E0F-95EF-B7F1D61D42E6}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="37695" windowHeight="21840" activeTab="2" xr2:uid="{9271DE90-5225-4E0F-95EF-B7F1D61D42E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature List" sheetId="1" r:id="rId1"/>
     <sheet name="Gantt" sheetId="2" r:id="rId2"/>
+    <sheet name="Testing" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
   <si>
     <t>Robotic Grasping - Feature List</t>
   </si>
@@ -125,9 +126,6 @@
   </si>
   <si>
     <t>Develop Experiments</t>
-  </si>
-  <si>
-    <t>Develop ROS pipline to run experiments on the trained network and evaluate grasp success.</t>
   </si>
   <si>
     <t>Save Results</t>
@@ -266,6 +264,99 @@
   </si>
   <si>
     <t>Unstarted</t>
+  </si>
+  <si>
+    <t>Develop ROS pipeline to run experiments on the trained network and evaluate grasp success.</t>
+  </si>
+  <si>
+    <t>Robotic Grasping - Test Table</t>
+  </si>
+  <si>
+    <t>Test No.</t>
+  </si>
+  <si>
+    <t>Test Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Automated/Visual</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Image Exists</t>
+  </si>
+  <si>
+    <t>Tensor Data</t>
+  </si>
+  <si>
+    <t>Transform</t>
+  </si>
+  <si>
+    <t>Model Spawning</t>
+  </si>
+  <si>
+    <t>Prediction Service</t>
+  </si>
+  <si>
+    <t>End Effector Pose</t>
+  </si>
+  <si>
+    <t>A test to check that all the images are in the required folder.</t>
+  </si>
+  <si>
+    <t>Automated</t>
+  </si>
+  <si>
+    <t>A test to check that the grasp data is turned into the correct Tensor slice.</t>
+  </si>
+  <si>
+    <t>Check that the transform tree poses are correct.</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Check that model spawns ate the required location.</t>
+  </si>
+  <si>
+    <t>Check that the pose predicted by the network matches the pose being used to grasp.</t>
+  </si>
+  <si>
+    <t>Check that the arm is moveing to the correct location in the scene.</t>
+  </si>
+  <si>
+    <t>Image Scene</t>
+  </si>
+  <si>
+    <t>Check that the scene matches that in the dataset images.</t>
+  </si>
+  <si>
+    <t>Feautrue No.</t>
+  </si>
+  <si>
+    <t>2, 7</t>
+  </si>
+  <si>
+    <t>3, 4</t>
+  </si>
+  <si>
+    <t>Results Format</t>
+  </si>
+  <si>
+    <t>10, 11</t>
+  </si>
+  <si>
+    <t>Check that the results are being saved correctly</t>
+  </si>
+  <si>
+    <t>Grasp Success</t>
+  </si>
+  <si>
+    <t>Check that the grasp successes are being recorded correctly.</t>
   </si>
 </sst>
 </file>
@@ -391,7 +482,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,6 +519,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -435,7 +530,28 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -584,7 +700,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CACE4114-6C44-4F71-B0E2-9889E1826180}" name="Table1" displayName="Table1" ref="A3:G14" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CACE4114-6C44-4F71-B0E2-9889E1826180}" name="Table1" displayName="Table1" ref="A3:G14" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A3:G14" xr:uid="{17F19FCB-6C93-4847-B0AE-0ED9202CC537}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -595,20 +711,20 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F00FB1CD-463D-4194-B6BF-312CB80AE4E9}" name="Feature No." dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{A54A355A-AA23-4DDC-8871-773F493FE003}" name="Feature Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{9256D8FE-C049-4533-9F65-DF7C910707C0}" name="Summary" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{22075168-A916-49DC-884B-FD3EDE3BD5F1}" name="Complexity (1 - 5)" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{9A128FAD-94B2-4DF0-95F7-289C8AEBE228}" name="Iteration" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{CF15D37B-99DF-4EDE-BEAA-69E272604B88}" name="Completion" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{B467B4C0-BB3E-4E1C-B42E-873EAC231623}" name="Extra Details" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{F00FB1CD-463D-4194-B6BF-312CB80AE4E9}" name="Feature No." dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A54A355A-AA23-4DDC-8871-773F493FE003}" name="Feature Name" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{9256D8FE-C049-4533-9F65-DF7C910707C0}" name="Summary" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{22075168-A916-49DC-884B-FD3EDE3BD5F1}" name="Complexity (1 - 5)" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{9A128FAD-94B2-4DF0-95F7-289C8AEBE228}" name="Iteration" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{CF15D37B-99DF-4EDE-BEAA-69E272604B88}" name="Completion" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{B467B4C0-BB3E-4E1C-B42E-873EAC231623}" name="Extra Details" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2957253-C9E3-4C78-BC45-D5CC16397881}" name="Table4" displayName="Table4" ref="A3:C24" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2957253-C9E3-4C78-BC45-D5CC16397881}" name="Table4" displayName="Table4" ref="A3:C24" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A3:C24" xr:uid="{DC7AE88A-6F6F-4CA1-BFB8-49C5936FF7AA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -616,15 +732,15 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DE5572D2-1167-4A65-A050-C21D6CB20151}" name="Task"/>
-    <tableColumn id="2" xr3:uid="{10FCF78C-F417-47A8-B46A-0B7472AF5A9F}" name="Expected Start Week" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3968F168-E4B3-4972-BB93-9DF4428C6D97}" name="Expected Duration (weeks)" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{10FCF78C-F417-47A8-B46A-0B7472AF5A9F}" name="Expected Start Week" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{3968F168-E4B3-4972-BB93-9DF4428C6D97}" name="Expected Duration (weeks)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D01A3BE8-EC2B-4E13-BAAF-F61D08ADFD48}" name="Table3" displayName="Table3" ref="D3:P24" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D01A3BE8-EC2B-4E13-BAAF-F61D08ADFD48}" name="Table3" displayName="Table3" ref="D3:P24" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="D3:P24" xr:uid="{91AB8ECF-304C-4E10-BF82-EE467E396B1C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -656,6 +772,28 @@
     <tableColumn id="13" xr3:uid="{644F5263-C0BF-4DC3-B924-ED4A85A494E5}" name="Week 13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81A45F53-FB2D-49CE-8A0F-03AB2B997991}" name="Table2" displayName="Table2" ref="B3:G15" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="B3:G15" xr:uid="{8E783B25-9230-4B80-ABAE-4389ED295CE9}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5020F503-F2FB-4054-8978-2C6ED0D98B75}" name="Test No." dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{853DD73E-971A-4C1E-8107-49BB00075D46}" name="Test Name" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{241D5F78-46D1-4AED-9C9E-1BCB9512540B}" name="Feautrue No." dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F114799A-BB57-40A7-A117-A45EF9A1C685}" name="Description" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{E9CA7766-B1E7-4D34-9DFE-D2BBA71EB446}" name="Automated/Visual" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{598A4AD0-1A31-4061-9992-5521F12264BB}" name="Pass" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -958,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98562E5-D21F-4DC0-9B50-01BAB35E5B7D}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,15 +1112,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1161,7 +1299,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>26</v>
@@ -1198,7 +1336,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
@@ -1207,7 +1345,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -1216,10 +1354,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -1228,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -1237,10 +1375,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -1249,10 +1387,10 @@
         <v>5</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1285,77 +1423,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="A1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="D3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1367,7 +1505,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1376,12 +1514,12 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1390,13 +1528,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1405,22 +1543,22 @@
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1431,7 +1569,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="9"/>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1448,7 +1586,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1462,24 +1600,24 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
@@ -1488,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1504,18 +1642,18 @@
         <v>2</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -1524,7 +1662,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1">
         <v>7</v>
@@ -1533,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -1542,7 +1680,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1">
         <v>8</v>
@@ -1551,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -1559,7 +1697,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1">
         <v>9</v>
@@ -1568,17 +1706,17 @@
         <v>1</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="K20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1592,7 +1730,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -1600,17 +1738,17 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1">
         <v>12</v>
@@ -1619,14 +1757,14 @@
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1">
         <v>13</v>
@@ -1635,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P24" s="9"/>
     </row>
@@ -1651,4 +1789,259 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E44ECDE-072E-4A6E-A891-146CFFD3E6B8}">
+  <dimension ref="B1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Reports/Final Report Tables.xlsx
+++ b/Reports/Final Report Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prifysgolaber-my.sharepoint.com/personal/olt13_aber_ac_uk/Documents/Work/Major Project/mmp_grasp_detect/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="550" documentId="8_{529A81D9-D3FF-4834-85A7-F5290A07351F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E5AE32CF-2247-4CBF-BB60-CD3599E589FF}"/>
+  <xr:revisionPtr revIDLastSave="578" documentId="8_{529A81D9-D3FF-4834-85A7-F5290A07351F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1D3BEC68-8B3F-45CC-8086-1062A83111C4}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="37695" windowHeight="21840" activeTab="2" xr2:uid="{9271DE90-5225-4E0F-95EF-B7F1D61D42E6}"/>
+    <workbookView xWindow="41205" yWindow="3720" windowWidth="28095" windowHeight="11475" activeTab="2" xr2:uid="{9271DE90-5225-4E0F-95EF-B7F1D61D42E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="106">
   <si>
     <t>Robotic Grasping - Feature List</t>
   </si>
@@ -326,18 +326,12 @@
     <t>Check that the pose predicted by the network matches the pose being used to grasp.</t>
   </si>
   <si>
-    <t>Check that the arm is moveing to the correct location in the scene.</t>
-  </si>
-  <si>
     <t>Image Scene</t>
   </si>
   <si>
     <t>Check that the scene matches that in the dataset images.</t>
   </si>
   <si>
-    <t>Feautrue No.</t>
-  </si>
-  <si>
     <t>2, 7</t>
   </si>
   <si>
@@ -357,6 +351,21 @@
   </si>
   <si>
     <t>Check that the grasp successes are being recorded correctly.</t>
+  </si>
+  <si>
+    <t>File names</t>
+  </si>
+  <si>
+    <t>A test to check that the images and grasp files are being saved with the correct name format.</t>
+  </si>
+  <si>
+    <t>File matches</t>
+  </si>
+  <si>
+    <t>A test to ensure that the generated images have a corresponding grasp file.</t>
+  </si>
+  <si>
+    <t>Check that the arm is moving to the correct location in the scene.</t>
   </si>
 </sst>
 </file>
@@ -482,7 +491,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -523,6 +532,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -532,25 +547,25 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -776,8 +791,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81A45F53-FB2D-49CE-8A0F-03AB2B997991}" name="Table2" displayName="Table2" ref="B3:G15" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="B3:G15" xr:uid="{8E783B25-9230-4B80-ABAE-4389ED295CE9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81A45F53-FB2D-49CE-8A0F-03AB2B997991}" name="Table2" displayName="Table2" ref="B3:G14" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="B3:G14" xr:uid="{8E783B25-9230-4B80-ABAE-4389ED295CE9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -786,12 +801,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5020F503-F2FB-4054-8978-2C6ED0D98B75}" name="Test No." dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{853DD73E-971A-4C1E-8107-49BB00075D46}" name="Test Name" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{241D5F78-46D1-4AED-9C9E-1BCB9512540B}" name="Feautrue No." dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{F114799A-BB57-40A7-A117-A45EF9A1C685}" name="Description" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{E9CA7766-B1E7-4D34-9DFE-D2BBA71EB446}" name="Automated/Visual" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{598A4AD0-1A31-4061-9992-5521F12264BB}" name="Pass" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{5020F503-F2FB-4054-8978-2C6ED0D98B75}" name="Test No." dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{853DD73E-971A-4C1E-8107-49BB00075D46}" name="Test Name" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{241D5F78-46D1-4AED-9C9E-1BCB9512540B}" name="Feature No." dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F114799A-BB57-40A7-A117-A45EF9A1C685}" name="Description" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E9CA7766-B1E7-4D34-9DFE-D2BBA71EB446}" name="Automated/Visual" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{598A4AD0-1A31-4061-9992-5521F12264BB}" name="Pass" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1096,7 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98562E5-D21F-4DC0-9B50-01BAB35E5B7D}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -1793,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E44ECDE-072E-4A6E-A891-146CFFD3E6B8}">
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,7 +1846,7 @@
         <v>75</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>76</v>
@@ -1843,197 +1858,203 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
+        <v>79</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5</v>
+        <v>82</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
